--- a/Data/99_CH3+HO2_CH4+O2/99_CH3+HO2_CH4+O2_reverse.xlsx
+++ b/Data/99_CH3+HO2_CH4+O2/99_CH3+HO2_CH4+O2_reverse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Rxr\Select_reaction_species\UnionReaction\paper\Uncertainty optimization Arrhenius\1Uncertainty\Data_convert\overall_0509\Data\99_CH3+HO2_CH4+O2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Rxr\Select_reaction_species\UnionReaction\Uncertainty optimization Arrhenius\1Uncertainty\Data_convert\overall_520\Data\99_CH3+HO2_CH4+O2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF877965-B6EA-4617-9131-9AB8C7EDCDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C335FC2-6B93-4C32-90A0-B7EDFD385082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39540" yWindow="675" windowWidth="25230" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,213 +37,214 @@
     <t>2017RYU/SHI228-236</t>
   </si>
   <si>
+    <t>1972SKI/LIF3853</t>
+  </si>
+  <si>
+    <t>1968MAY/SCH2628-2631</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Squib</t>
+  </si>
+  <si>
+    <t>Temp [K]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Ea [kJ/mole]</t>
+  </si>
+  <si>
+    <t>k(298.00 K)</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>500 - 2000</t>
+  </si>
+  <si>
+    <t>300 - 2500</t>
+  </si>
+  <si>
+    <t>1609 - 1812</t>
+  </si>
+  <si>
+    <t>1961FAL/KNO782-791</t>
+  </si>
+  <si>
+    <t>&lt;0.36</t>
+  </si>
+  <si>
+    <r>
+      <t>Reference reaction:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>·C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>HO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>2018ARA/RIC294</t>
+  </si>
+  <si>
+    <t>200 - 2000</t>
+  </si>
+  <si>
+    <t>1999YAM/TEN8272-8278</t>
+  </si>
+  <si>
+    <t>1000 - 2500</t>
+  </si>
+  <si>
+    <t>300 - 1000</t>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>1978SHA1179</t>
-  </si>
-  <si>
-    <t>1972SKI/LIF3853</t>
-  </si>
-  <si>
-    <t>1968MAY/SCH2628-2631</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Squib</t>
-  </si>
-  <si>
-    <t>Temp [K]</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Ea [kJ/mole]</t>
-  </si>
-  <si>
-    <t>k(298.00 K)</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>500 - 2000</t>
-  </si>
-  <si>
-    <t>300 - 2500</t>
-  </si>
-  <si>
-    <t>1609 - 1812</t>
-  </si>
-  <si>
-    <t>1961FAL/KNO782-791</t>
-  </si>
-  <si>
-    <t>&lt;0.36</t>
-  </si>
-  <si>
-    <r>
-      <t>Reference reaction:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t> → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>·C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>HO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Theory</t>
-  </si>
-  <si>
-    <t>2018ARA/RIC294</t>
-  </si>
-  <si>
-    <t>200 - 2000</t>
-  </si>
-  <si>
-    <t>1999YAM/TEN8272-8278</t>
-  </si>
-  <si>
-    <t>1000 - 2500</t>
-  </si>
-  <si>
-    <t>300 - 1000</t>
-  </si>
-  <si>
-    <t>interval</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -437,6 +438,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -444,15 +454,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,7 +764,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -782,51 +783,51 @@
     <col min="15" max="15" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.5">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="17" customHeight="1">
-      <c r="A2" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.899999999999999">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="7"/>
@@ -836,7 +837,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="29.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -844,9 +845,11 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="10">
+        <v>100</v>
+      </c>
       <c r="G3" s="13">
         <v>6.59E-11</v>
       </c>
@@ -863,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="29.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
@@ -871,9 +874,11 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="F4" s="16">
+        <v>100</v>
+      </c>
       <c r="G4" s="19">
         <v>6.7100000000000006E-11</v>
       </c>
@@ -891,13 +896,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="7"/>
@@ -908,15 +913,15 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="17" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
@@ -926,7 +931,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="29.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
@@ -934,7 +939,7 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="10">
         <v>25</v>
@@ -955,11 +960,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="29.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="20">
@@ -967,7 +972,7 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="18"/>
@@ -981,34 +986,34 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="7"/>
@@ -1019,15 +1024,15 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="17" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
+      <c r="A11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
       <c r="J11" s="7"/>
@@ -1037,17 +1042,19 @@
       <c r="N11" s="7"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="29.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="10">
+        <v>100</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="10"/>
       <c r="I12" s="12"/>
@@ -1062,11 +1069,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="29.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="20">
@@ -1087,17 +1094,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="28.9" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="F14" s="10">
+        <v>100</v>
+      </c>
       <c r="G14" s="13">
         <v>1.2600000000000001E-12</v>
       </c>
@@ -1116,15 +1125,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="31.9" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="16">
         <v>100</v>
@@ -1145,15 +1154,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="48" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="10">
         <v>50</v>
